--- a/Output.xlsx
+++ b/Output.xlsx
@@ -353,26 +353,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.2721761447142857</v>
+        <v>0.4871543718</v>
       </c>
       <c r="B2">
-        <v>0.2261217135714286</v>
+        <v>0.8168518678</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.4871543718</v>
+        <v>0.7947224918333333</v>
       </c>
       <c r="B3">
-        <v>0.8168518678</v>
+        <v>0.4174212148333334</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.7947224918333333</v>
+        <v>0.2721761447142857</v>
       </c>
       <c r="B4">
-        <v>0.4174212148333334</v>
+        <v>0.2261217135714286</v>
       </c>
     </row>
     <row r="5" spans="1:2">

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -353,26 +353,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.4871543718</v>
+        <v>0.2721761447142857</v>
       </c>
       <c r="B2">
-        <v>0.8168518678</v>
+        <v>0.2261217135714286</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.7947224918333333</v>
+        <v>0.4871543718</v>
       </c>
       <c r="B3">
-        <v>0.4174212148333334</v>
+        <v>0.8168518678</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.2721761447142857</v>
+        <v>0.7947224918333333</v>
       </c>
       <c r="B4">
-        <v>0.2261217135714286</v>
+        <v>0.4174212148333334</v>
       </c>
     </row>
     <row r="5" spans="1:2">

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -353,10 +353,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.2721761447142857</v>
+        <v>0.7947224918333333</v>
       </c>
       <c r="B2">
-        <v>0.2261217135714286</v>
+        <v>0.4174212148333334</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -369,10 +369,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.7947224918333333</v>
+        <v>0.2721761447142857</v>
       </c>
       <c r="B4">
-        <v>0.4174212148333334</v>
+        <v>0.2261217135714286</v>
       </c>
     </row>
     <row r="5" spans="1:2">

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -353,31 +353,31 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.7947224918333333</v>
+        <v>0.5855568787500001</v>
       </c>
       <c r="B2">
-        <v>0.4174212148333334</v>
+        <v>0.7315822009999999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.4871543718</v>
+        <v>0.2138739478333333</v>
       </c>
       <c r="B3">
-        <v>0.8168518678</v>
+        <v>0.2538263863333334</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.2721761447142857</v>
+        <v>0.7854102765000001</v>
       </c>
       <c r="B4">
-        <v>0.2261217135714286</v>
+        <v>0.19900567425</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -340,47 +340,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2">
+        <v>0.2138739478333333</v>
+      </c>
+      <c r="B2">
+        <v>0.2538263863333334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>0.7854102765000001</v>
+      </c>
+      <c r="B3">
+        <v>0.19900567425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>0.5855568787500001</v>
       </c>
-      <c r="B2">
+      <c r="B4">
         <v>0.7315822009999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>0.2138739478333333</v>
-      </c>
-      <c r="B3">
-        <v>0.2538263863333334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>0.7854102765000001</v>
-      </c>
-      <c r="B4">
-        <v>0.19900567425</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>18</v>
       </c>
@@ -388,94 +388,148 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="B7">
         <v>0.348265448</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>0.269011835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="B8">
         <v>0.234727223</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>0.757319949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="B9">
         <v>0.7671849120000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>0.721171411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="B10">
         <v>0.7166711099999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>0.867750641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="B11">
         <v>0.919303164</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>0.573783432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="B12">
         <v>0.344657111</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>0.165592322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="B13">
         <v>0.456945687</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>0.939763359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="B14">
         <v>0.276023884</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>0.150339727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="B15">
         <v>0.562195095</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>0.473443426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="B16">
         <v>0.235105096</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="C16">
+        <v>0.325536645</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17">
         <v>0.903213043</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="C17">
+        <v>0.004042724</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18">
         <v>0.5632956139999999</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="C18">
+        <v>0.704394646</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19">
         <v>0.464132225</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
+      <c r="C19">
+        <v>0.815030744</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
       <c r="B20">
         <v>0.781520654</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
+      <c r="C20">
+        <v>0.327890346</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21">
         <v>0.029144362</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
+      <c r="C21">
+        <v>0.158528215</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
       <c r="B22">
         <v>0.834918083</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22">
+        <v>0.40419595</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23">
         <v>0.050047786</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
+      <c r="C23">
+        <v>0.453949574</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
       <c r="B24">
         <v>0.621989326</v>
+      </c>
+      <c r="C24">
+        <v>0.059893677</v>
       </c>
     </row>
   </sheetData>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -353,31 +353,31 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.2138739478333333</v>
+        <v>0.3940568957142857</v>
       </c>
       <c r="B2">
-        <v>0.2538263863333334</v>
+        <v>0.1618493064285715</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.7854102765000001</v>
+        <v>0.5338261285</v>
       </c>
       <c r="B3">
-        <v>0.19900567425</v>
+        <v>0.800905125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.5855568787500001</v>
+        <v>0.6295969563999999</v>
       </c>
       <c r="B4">
-        <v>0.7315822009999999</v>
+        <v>0.4466525456</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -389,6 +389,9 @@
       </c>
     </row>
     <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1</v>
+      </c>
       <c r="B7">
         <v>0.348265448</v>
       </c>
@@ -397,6 +400,9 @@
       </c>
     </row>
     <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2</v>
+      </c>
       <c r="B8">
         <v>0.234727223</v>
       </c>
@@ -405,6 +411,9 @@
       </c>
     </row>
     <row r="9" spans="1:3">
+      <c r="A9">
+        <v>2</v>
+      </c>
       <c r="B9">
         <v>0.7671849120000001</v>
       </c>
@@ -413,6 +422,9 @@
       </c>
     </row>
     <row r="10" spans="1:3">
+      <c r="A10">
+        <v>2</v>
+      </c>
       <c r="B10">
         <v>0.7166711099999999</v>
       </c>
@@ -421,6 +433,9 @@
       </c>
     </row>
     <row r="11" spans="1:3">
+      <c r="A11">
+        <v>3</v>
+      </c>
       <c r="B11">
         <v>0.919303164</v>
       </c>
@@ -429,6 +444,9 @@
       </c>
     </row>
     <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1</v>
+      </c>
       <c r="B12">
         <v>0.344657111</v>
       </c>
@@ -437,6 +455,9 @@
       </c>
     </row>
     <row r="13" spans="1:3">
+      <c r="A13">
+        <v>2</v>
+      </c>
       <c r="B13">
         <v>0.456945687</v>
       </c>
@@ -445,6 +466,9 @@
       </c>
     </row>
     <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1</v>
+      </c>
       <c r="B14">
         <v>0.276023884</v>
       </c>
@@ -453,6 +477,9 @@
       </c>
     </row>
     <row r="15" spans="1:3">
+      <c r="A15">
+        <v>3</v>
+      </c>
       <c r="B15">
         <v>0.562195095</v>
       </c>
@@ -461,6 +488,9 @@
       </c>
     </row>
     <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1</v>
+      </c>
       <c r="B16">
         <v>0.235105096</v>
       </c>
@@ -468,7 +498,10 @@
         <v>0.325536645</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1</v>
+      </c>
       <c r="B17">
         <v>0.903213043</v>
       </c>
@@ -476,7 +509,10 @@
         <v>0.004042724</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2</v>
+      </c>
       <c r="B18">
         <v>0.5632956139999999</v>
       </c>
@@ -484,7 +520,10 @@
         <v>0.704394646</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>2</v>
+      </c>
       <c r="B19">
         <v>0.464132225</v>
       </c>
@@ -492,7 +531,10 @@
         <v>0.815030744</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>3</v>
+      </c>
       <c r="B20">
         <v>0.781520654</v>
       </c>
@@ -500,7 +542,10 @@
         <v>0.327890346</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1</v>
+      </c>
       <c r="B21">
         <v>0.029144362</v>
       </c>
@@ -508,7 +553,10 @@
         <v>0.158528215</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>3</v>
+      </c>
       <c r="B22">
         <v>0.834918083</v>
       </c>
@@ -516,7 +564,10 @@
         <v>0.40419595</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>3</v>
+      </c>
       <c r="B23">
         <v>0.050047786</v>
       </c>
@@ -524,7 +575,10 @@
         <v>0.453949574</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>1</v>
+      </c>
       <c r="B24">
         <v>0.621989326</v>
       </c>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -353,31 +353,31 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.3940568957142857</v>
+        <v>0.8121888540000001</v>
       </c>
       <c r="B2">
-        <v>0.1618493064285715</v>
+        <v>0.2739612258</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.5338261285</v>
+        <v>0.2138739478333333</v>
       </c>
       <c r="B3">
-        <v>0.800905125</v>
+        <v>0.2538263863333334</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.6295969563999999</v>
+        <v>0.537878838</v>
       </c>
       <c r="B4">
-        <v>0.4466525456</v>
+        <v>0.7541248822857144</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -390,7 +390,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>0.348265448</v>
@@ -401,7 +401,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>0.234727223</v>
@@ -412,7 +412,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>0.7671849120000001</v>
@@ -423,7 +423,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0.7166711099999999</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0.919303164</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>0.344657111</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>0.456945687</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>0.276023884</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16">
         <v>0.235105096</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>0.5632956139999999</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>0.464132225</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <v>0.781520654</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>0.029144362</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22">
         <v>0.834918083</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23">
         <v>0.050047786</v>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -361,23 +361,23 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.2138739478333333</v>
+        <v>0.537878838</v>
       </c>
       <c r="B3">
-        <v>0.2538263863333334</v>
+        <v>0.7541248822857144</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.537878838</v>
+        <v>0.2138739478333333</v>
       </c>
       <c r="B4">
-        <v>0.7541248822857144</v>
+        <v>0.2538263863333334</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -390,7 +390,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0.348265448</v>
@@ -401,7 +401,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>0.234727223</v>
@@ -412,7 +412,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>0.7671849120000001</v>
@@ -423,7 +423,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>0.7166711099999999</v>
@@ -445,7 +445,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>0.344657111</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>0.456945687</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>0.276023884</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>0.562195095</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>0.235105096</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18">
         <v>0.5632956139999999</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19">
         <v>0.464132225</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21">
         <v>0.029144362</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <v>0.050047786</v>
